--- a/tableprep/appendix4-4.xlsx
+++ b/tableprep/appendix4-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drblez/yacht_captain/tableprep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF24992-B061-F64A-892A-019EF9D9C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC7D5DE-6D07-8743-9A25-961ADCB66E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9520" yWindow="7420" windowWidth="18820" windowHeight="10340" xr2:uid="{190A19D6-0DA7-654D-931B-1AA4C462B59E}"/>
   </bookViews>

--- a/tableprep/appendix4-4.xlsx
+++ b/tableprep/appendix4-4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drblez/yacht_captain/tableprep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC7D5DE-6D07-8743-9A25-961ADCB66E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA37D80-74CF-4A42-92B2-70DB9BE5732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9520" yWindow="7420" windowWidth="18820" windowHeight="10340" xr2:uid="{190A19D6-0DA7-654D-931B-1AA4C462B59E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC87E291-99A7-D64D-8A61-5212D647EABF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,10 @@
       <c r="D4" s="1">
         <v>0.2</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="0">ROUND((D4+F4)/2,1)</f>
+        <v>0.2</v>
+      </c>
       <c r="F4" s="1">
         <v>0.2</v>
       </c>
@@ -601,7 +604,10 @@
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="F5" s="1">
         <v>0.1</v>
       </c>
@@ -628,7 +634,10 @@
       <c r="D6" s="1">
         <v>0.4</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="F6" s="1">
         <v>0.5</v>
       </c>
@@ -655,7 +664,10 @@
       <c r="D7" s="1">
         <v>0.6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
       <c r="F7" s="1">
         <v>0.8</v>
       </c>
@@ -682,7 +694,10 @@
       <c r="D8" s="1">
         <v>0.8</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F8" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -709,7 +724,10 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
       <c r="F9" s="1">
         <v>1.3</v>
       </c>
@@ -736,7 +754,10 @@
       <c r="D10" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
       <c r="F10" s="1">
         <v>1.4</v>
       </c>
@@ -869,7 +890,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E26" si="0">ROUND((D18+F18)/2,1)</f>
+        <f t="shared" ref="E18:E26" si="1">ROUND((D18+F18)/2,1)</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="1">
@@ -899,7 +920,7 @@
         <v>0.6</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="F19" s="1">
@@ -929,7 +950,7 @@
         <v>0.8</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F20" s="1">
@@ -959,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="F21" s="1">
@@ -989,7 +1010,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F22" s="1">
@@ -1019,7 +1040,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F23" s="1">
@@ -1049,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="F24" s="1">
@@ -1079,7 +1100,7 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F25" s="1">
@@ -1112,7 +1133,7 @@
         <v>0.7</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="F26" s="1">
